--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20242.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>Mat</t>
   </si>
@@ -79,30 +79,30 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
     <t>LEON</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>TORRES</t>
   </si>
   <si>
@@ -112,142 +112,58 @@
     <t>ZEPAHUA</t>
   </si>
   <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>BUSTOS</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>AUTRAN</t>
-  </si>
-  <si>
-    <t>LAGUNA</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>ARZATE</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>LIBRADO</t>
+  </si>
+  <si>
+    <t>CHICUELLAR</t>
   </si>
   <si>
     <t>VALENTE</t>
   </si>
   <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
     <t>AJACTLE</t>
   </si>
   <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LIBRADO</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
+    <t>UZIEL</t>
+  </si>
+  <si>
+    <t>DIEGO ARMANDO</t>
+  </si>
+  <si>
+    <t>OMAR EMILIANO</t>
   </si>
   <si>
     <t>BRAYAN</t>
   </si>
   <si>
-    <t>AXEL AARON</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>SABDY</t>
-  </si>
-  <si>
-    <t>SERGIO JOSUE</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>ANGEL BRYAN</t>
+    <t>ANGEL ALBERTO</t>
+  </si>
+  <si>
+    <t>ARMANDO GABRIEL</t>
+  </si>
+  <si>
+    <t>ELIAN RAMON</t>
   </si>
   <si>
     <t>DIEGO</t>
   </si>
   <si>
-    <t>CARLOS ALEXANDER</t>
-  </si>
-  <si>
     <t>DAVID</t>
   </si>
   <si>
     <t>JOSMAR</t>
-  </si>
-  <si>
-    <t>JUAN ALEXIS</t>
-  </si>
-  <si>
-    <t>ARMANDO GABRIEL</t>
-  </si>
-  <si>
-    <t>TRISTAN YABAL</t>
-  </si>
-  <si>
-    <t>LUIS FABIAN</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>JOSE EMILIANO</t>
-  </si>
-  <si>
-    <t>NATANAHEL</t>
-  </si>
-  <si>
-    <t>JUAN RAMON</t>
-  </si>
-  <si>
-    <t>KEVYN DANIEL</t>
-  </si>
-  <si>
-    <t>ANTHONY</t>
   </si>
 </sst>
 </file>
@@ -700,22 +616,16 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>94.73999999999999</v>
-      </c>
-      <c r="H4">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -797,16 +707,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>84.62</v>
+      </c>
+      <c r="H2">
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -820,16 +733,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>86.11</v>
+      </c>
+      <c r="H3">
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -840,18 +756,15 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
         <v>0</v>
       </c>
     </row>
@@ -866,16 +779,19 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>73.68000000000001</v>
+      </c>
+      <c r="H5">
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -934,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>76.92</v>
+        <v>84.62</v>
       </c>
       <c r="H2">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -960,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>83.33</v>
+        <v>86.11</v>
       </c>
       <c r="H3">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -980,18 +896,15 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
         <v>0</v>
       </c>
     </row>
@@ -1009,16 +922,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>52.63</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="H5">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +941,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1063,16 +976,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920149</v>
+        <v>24330051920122</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1086,19 +999,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920190</v>
+        <v>23330051920211</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -1109,154 +1022,154 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920190</v>
+        <v>24330051920401</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>22330051920389</v>
+        <v>24330051920149</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23330051920329</v>
+        <v>24330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23330051920332</v>
+        <v>23330051920324</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>23330051920186</v>
+        <v>24330051920332</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>23330051920186</v>
+        <v>24330051920314</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920062</v>
+        <v>24330051920299</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1265,21 +1178,21 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24330051920314</v>
+        <v>24330051920125</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1288,397 +1201,6 @@
         <v>11</v>
       </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>24330051920079</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>24330051920299</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>24330051920125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>24330051920078</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>23330051920324</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>23330051920324</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>22330051920196</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>23330051920203</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>23330051920179</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>23330051920180</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>23330051920180</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>23330051920189</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>23330051920199</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>23330051920201</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>23330051920201</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>23330051920192</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>23330051920206</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20242.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20242.xlsx
@@ -1040,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">

--- a/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20242.xlsx
+++ b/docentes/Zarate Amezcua Eladio Jorge - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>Mat</t>
   </si>
@@ -46,6 +46,9 @@
     <t>REALIZA INSTALACIONES ELÉCTRICAS</t>
   </si>
   <si>
+    <t>Ingles II</t>
+  </si>
+  <si>
     <t>Formación socioemocional IV</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>2AEV</t>
+  </si>
+  <si>
+    <t>2ARHV</t>
   </si>
   <si>
     <t>4AEV</t>
@@ -521,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -587,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>36</v>
@@ -613,19 +619,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>56.67</v>
+      </c>
+      <c r="H4">
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -633,24 +645,44 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>52.63</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>6.2</v>
       </c>
     </row>
@@ -661,7 +693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -701,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -727,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>36</v>
@@ -753,10 +785,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -765,7 +797,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -773,24 +811,44 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>14</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>73.68000000000001</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>6.2</v>
       </c>
     </row>
@@ -801,7 +859,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -841,7 +899,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -867,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>36</v>
@@ -893,10 +951,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -905,7 +963,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -913,24 +977,44 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>14</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>73.68000000000001</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>6.6</v>
       </c>
     </row>
@@ -953,25 +1037,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -979,19 +1063,19 @@
         <v>24330051920122</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1002,19 +1086,19 @@
         <v>23330051920211</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1025,19 +1109,19 @@
         <v>24330051920401</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1048,19 +1132,19 @@
         <v>24330051920149</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1071,19 +1155,19 @@
         <v>24330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1094,19 +1178,19 @@
         <v>23330051920324</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1117,19 +1201,19 @@
         <v>24330051920332</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1140,19 +1224,19 @@
         <v>24330051920314</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1163,19 +1247,19 @@
         <v>24330051920299</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1186,19 +1270,19 @@
         <v>24330051920125</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>1</v>
